--- a/biology/Botanique/Griffe_de_jardin/Griffe_de_jardin.xlsx
+++ b/biology/Botanique/Griffe_de_jardin/Griffe_de_jardin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La griffe de jardin est un outil, une sorte de fourche présentant quatre dents circulaires courbées à 90°, ressemblant à une patte d'un animal avec des griffes.Elle se manœuvre en enfonçant les dents d’au moins la moitié de leur longueur et en tirant vers soi, ce qui permet de briser les mottes pour affiner la surface du sol, et obtenir un travail parfait.On trouve également des griffes à 3 dents placées en triangle et terminées en sorte de petites pelles, utilisées pour glisser entre les plantations et pour faciliter le piochage de la terre.La griffe est un outil généralement emmanché d’une douille. Il doit être nettoyé après chaque usage en brossant les dents, puis doit être huilé pour éviter la corrosion.
 Il s'agit pratiquement du même outil que le croc à fumier.
@@ -512,7 +524,9 @@
           <t>Autres modèles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Griffe de jardin ou cultivateur, pour briser la croûte supérieure du sol et arracher les mauvaises herbes.
 Griffe piocheuse, pour affiner les sols caillouteux, sans abîmer les racines.
